--- a/test/menu-excel/breakfast_ar.xlsx
+++ b/test/menu-excel/breakfast_ar.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="17424" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
-    <t xml:space="preserve">name </t>
+    <t>name</t>
   </si>
   <si>
     <t>price</t>
@@ -122,7 +122,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,58 +132,86 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,27 +231,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +247,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -242,7 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,45 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,19 +292,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,37 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,121 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,26 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -547,11 +516,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,41 +579,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,157 +621,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,12 +1077,12 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,243 +1095,219 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>180</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>27</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>182</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>46</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>400</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>160</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>275</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>200</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>35</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>220</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>148</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>380</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>250</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>350</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>35</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>150</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
